--- a/template/Book1.xlsx
+++ b/template/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="576" yWindow="24" windowWidth="22008" windowHeight="9408"/>
@@ -10,12 +10,12 @@
     <sheet name="input" sheetId="2" r:id="rId1"/>
     <sheet name="check" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,22 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cust1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pass1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +162,122 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/04/01 4:12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +300,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,21 +327,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:I12"/>
+  <dimension ref="A4:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -541,7 +657,7 @@
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -604,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -615,90 +731,90 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,12 +822,193 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/template/Book1.xlsx
+++ b/template/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="24" windowWidth="22008" windowHeight="9408"/>
+    <workbookView xWindow="570" yWindow="30" windowWidth="19440" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,25 +278,124 @@
   </si>
   <si>
     <t>CUST2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_CURRENCY</t>
+  </si>
+  <si>
+    <t>COUNTER_CURRENCY</t>
+  </si>
+  <si>
+    <t>EXCHANGE_RATE</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>UPD_DATE</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>AUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/05/16 17:25:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>20130516</t>
+  </si>
+  <si>
+    <t>2013/05/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -309,6 +408,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,12 +425,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -336,7 +458,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,18 +468,29 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,6 +564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,6 +599,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,21 +775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.796875" style="1"/>
-    <col min="9" max="9" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="8" width="8.75" style="1"/>
+    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:12">
@@ -825,7 +958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="16.5">
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
@@ -1013,15 +1146,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
